--- a/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C9097E7-C2FF-423C-99E0-7BD849910135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C4EC19-BF45-4427-923F-DD7E1E1CD9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{446A7F7D-8BE5-408C-BDFC-CB979049F877}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D091A7F0-892F-403D-BFC6-6D9D47989EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,27 +71,201 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
     <t>9,96%</t>
   </si>
   <si>
@@ -119,39 +293,9 @@
     <t>14,17%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
@@ -173,33 +317,6 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
@@ -224,121 +341,58 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>9,95%</t>
@@ -368,33 +422,6 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
@@ -413,33 +440,6 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
@@ -464,6 +464,180 @@
     <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
     <t>19,34%</t>
   </si>
   <si>
@@ -491,36 +665,6 @@
     <t>23,44%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>0,41%</t>
   </si>
   <si>
@@ -542,33 +686,6 @@
     <t>2,61%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
     <t>1,3%</t>
   </si>
   <si>
@@ -593,121 +710,58 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>19,92%</t>
@@ -734,33 +788,6 @@
     <t>22,39%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
@@ -782,33 +809,6 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
@@ -827,6 +827,174 @@
     <t>Menores según frecuencia de sentirse  triste en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
     <t>13,73%</t>
   </si>
   <si>
@@ -854,33 +1022,6 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -899,36 +1040,9 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
@@ -950,118 +1064,58 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>12,91%</t>
@@ -1091,33 +1145,6 @@
     <t>17,27%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
@@ -1133,33 +1160,6 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
     <t>0,44%</t>
   </si>
   <si>
@@ -1181,6 +1181,159 @@
     <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
     <t>14,85%</t>
   </si>
   <si>
@@ -1202,30 +1355,6 @@
     <t>17,54%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
@@ -1244,30 +1373,6 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
@@ -1283,109 +1388,55 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>14,16%</t>
@@ -1412,30 +1463,6 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
     <t>3,96%</t>
   </si>
   <si>
@@ -1452,33 +1479,6 @@
   </si>
   <si>
     <t>2,73%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -1885,7 +1885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05A1A1C-5738-46B4-B553-2DE9101D01FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E303107-4813-4CD3-B002-348B1BAD3461}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2275,10 +2275,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>24841</v>
+        <v>40256</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2290,10 +2290,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>32689</v>
+        <v>28606</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2305,10 +2305,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>57530</v>
+        <v>68862</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2326,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>61322</v>
+        <v>12471</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2341,10 +2341,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>62962</v>
+        <v>12424</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2356,10 +2356,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>124284</v>
+        <v>24895</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2377,10 +2377,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>1257</v>
+        <v>5855</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2392,10 +2392,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>4162</v>
+        <v>5963</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2407,10 +2407,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>5420</v>
+        <v>11818</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2428,10 +2428,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>160002</v>
+        <v>487</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2443,34 +2443,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>138878</v>
+        <v>1169</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1656</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>443</v>
-      </c>
-      <c r="N13" s="7">
-        <v>298880</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,49 +2479,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1885</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2339</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4224</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,102 +2530,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>249307</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>241030</v>
+        <v>48162</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>490337</v>
+        <v>107231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="D16" s="7">
-        <v>5855</v>
+        <v>160002</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>204</v>
+      </c>
+      <c r="I16" s="7">
+        <v>138878</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="7">
+        <v>443</v>
+      </c>
+      <c r="N16" s="7">
+        <v>298880</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5963</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11818</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,49 +2634,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>12471</v>
+        <v>61322</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>96</v>
+      </c>
+      <c r="I17" s="7">
+        <v>62962</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="7">
+        <v>188</v>
+      </c>
+      <c r="N17" s="7">
+        <v>124284</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12424</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>38</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24895</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,49 +2685,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
-        <v>487</v>
+        <v>24841</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
+        <v>48</v>
+      </c>
+      <c r="I18" s="7">
+        <v>32689</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="7">
+        <v>86</v>
+      </c>
+      <c r="N18" s="7">
+        <v>57530</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1169</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1656</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,49 +2736,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>40256</v>
+        <v>1257</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4162</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5420</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28606</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="7">
-        <v>103</v>
-      </c>
-      <c r="N19" s="7">
-        <v>68862</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,46 +2787,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2339</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4224</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>99</v>
@@ -2838,49 +2838,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>249307</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7">
-        <v>48162</v>
+        <v>241030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>107231</v>
+        <v>490337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="D22" s="7">
-        <v>30696</v>
+        <v>200257</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
@@ -2906,10 +2906,10 @@
         <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>38652</v>
+        <v>167484</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>103</v>
@@ -2921,10 +2921,10 @@
         <v>105</v>
       </c>
       <c r="M22" s="7">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="N22" s="7">
-        <v>69348</v>
+        <v>367741</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>106</v>
@@ -2993,49 +2993,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>1745</v>
+        <v>30696</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7">
-        <v>5331</v>
+        <v>38652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="N24" s="7">
-        <v>7076</v>
+        <v>69348</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,46 +3044,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>200257</v>
+        <v>1745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>167484</v>
+        <v>5331</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="7">
+        <v>7076</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="7">
-        <v>546</v>
-      </c>
-      <c r="N25" s="7">
-        <v>367741</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>132</v>
@@ -3101,7 +3101,7 @@
         <v>1885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>133</v>
@@ -3119,7 +3119,7 @@
         <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>136</v>
@@ -3152,13 +3152,13 @@
         <v>308376</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>430</v>
@@ -3167,13 +3167,13 @@
         <v>289193</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -3182,13 +3182,13 @@
         <v>597568</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282FB33-9F66-404E-9E5A-E57D37A14EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97282FA-23D8-40D1-B2B6-DD350A0ED171}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,10 +3597,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>50264</v>
+        <v>26836</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>141</v>
@@ -3612,10 +3612,10 @@
         <v>143</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>51665</v>
+        <v>35137</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>144</v>
@@ -3627,10 +3627,10 @@
         <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>101929</v>
+        <v>61972</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>147</v>
@@ -3648,10 +3648,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>78030</v>
+        <v>23039</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>150</v>
@@ -3663,10 +3663,10 @@
         <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>79078</v>
+        <v>18813</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>153</v>
@@ -3678,10 +3678,10 @@
         <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>157108</v>
+        <v>41852</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>156</v>
@@ -3699,10 +3699,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>3033</v>
+        <v>14683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>159</v>
@@ -3714,10 +3714,10 @@
         <v>161</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>4566</v>
+        <v>9645</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>162</v>
@@ -3729,19 +3729,19 @@
         <v>164</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>7599</v>
+        <v>24327</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,25 +3750,25 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>125192</v>
+        <v>1617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>103217</v>
+        <v>2751</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>170</v>
@@ -3780,19 +3780,19 @@
         <v>172</v>
       </c>
       <c r="M13" s="7">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>228410</v>
+        <v>4368</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,49 +3801,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3384</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3023</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4280</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3023</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7664</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,102 +3852,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>502710</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
-        <v>14683</v>
+        <v>125192</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="7">
+        <v>148</v>
+      </c>
+      <c r="I16" s="7">
+        <v>103217</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9645</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>332</v>
+      </c>
+      <c r="N16" s="7">
+        <v>228410</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M16" s="7">
-        <v>34</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24327</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,49 +3956,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>23039</v>
+        <v>78030</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="7">
+        <v>113</v>
+      </c>
+      <c r="I17" s="7">
+        <v>79078</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18813</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>229</v>
+      </c>
+      <c r="N17" s="7">
+        <v>157108</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="M17" s="7">
-        <v>58</v>
-      </c>
-      <c r="N17" s="7">
-        <v>41852</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,49 +4007,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>1617</v>
+        <v>50264</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="7">
+        <v>72</v>
+      </c>
+      <c r="I18" s="7">
+        <v>51665</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2751</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>144</v>
+      </c>
+      <c r="N18" s="7">
+        <v>101929</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M18" s="7">
-        <v>6</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4368</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,49 +4058,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>26836</v>
+        <v>3033</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4566</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="7">
-        <v>50</v>
-      </c>
-      <c r="I19" s="7">
-        <v>35137</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>12</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7599</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>88</v>
-      </c>
-      <c r="N19" s="7">
-        <v>61972</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,46 +4109,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4280</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3023</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>11</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7664</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3023</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>222</v>
@@ -4160,49 +4160,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>502710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,10 +4213,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="D22" s="7">
-        <v>64946</v>
+        <v>152028</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>223</v>
@@ -4228,10 +4228,10 @@
         <v>225</v>
       </c>
       <c r="H22" s="7">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7">
-        <v>61309</v>
+        <v>138354</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>226</v>
@@ -4243,19 +4243,19 @@
         <v>228</v>
       </c>
       <c r="M22" s="7">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="N22" s="7">
-        <v>126256</v>
+        <v>290382</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4270,13 @@
         <v>101070</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -4285,13 +4285,13 @@
         <v>97891</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -4300,13 +4300,13 @@
         <v>198960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,49 +4315,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7">
-        <v>4650</v>
+        <v>64946</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="I24" s="7">
-        <v>7317</v>
+        <v>61309</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="N24" s="7">
-        <v>11967</v>
+        <v>126256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,40 +4366,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>152028</v>
+        <v>4650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>138354</v>
+        <v>7317</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>252</v>
       </c>
       <c r="M25" s="7">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>290382</v>
+        <v>11967</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>253</v>
@@ -4438,13 +4438,13 @@
         <v>7303</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4456,7 +4456,7 @@
         <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>260</v>
@@ -4474,13 +4474,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4489,13 +4489,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>918</v>
@@ -4504,13 +4504,13 @@
         <v>638252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9D55B8-D075-49A2-8B83-D05421660BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E32E7-4356-4E9F-BA02-EE0614D80A78}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,10 +4919,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>37522</v>
+        <v>41452</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>262</v>
@@ -4934,10 +4934,10 @@
         <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>44568</v>
+        <v>43339</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>265</v>
@@ -4949,19 +4949,19 @@
         <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>82089</v>
+        <v>84791</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,49 +4970,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>95885</v>
+        <v>23589</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7">
+        <v>27976</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H11" s="7">
-        <v>121</v>
-      </c>
-      <c r="I11" s="7">
-        <v>85787</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>77</v>
+      </c>
+      <c r="N11" s="7">
+        <v>51565</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M11" s="7">
-        <v>252</v>
-      </c>
-      <c r="N11" s="7">
-        <v>181672</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,49 +5021,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>671</v>
+        <v>7560</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7">
+        <v>13403</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6530</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>31</v>
+      </c>
+      <c r="N12" s="7">
+        <v>20962</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7200</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,28 +5072,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>138369</v>
+        <v>2621</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1774</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="H13" s="7">
-        <v>167</v>
-      </c>
-      <c r="I13" s="7">
-        <v>120574</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>291</v>
@@ -5102,19 +5102,19 @@
         <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>258942</v>
+        <v>4395</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,46 +5126,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>891</v>
+        <v>644</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>564</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="7">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="7">
-        <v>1181</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>1208</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2072</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,102 +5174,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
-        <v>7560</v>
+        <v>138369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7">
+        <v>120574</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13403</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>351</v>
+      </c>
+      <c r="N16" s="7">
+        <v>258942</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="M16" s="7">
-        <v>31</v>
-      </c>
-      <c r="N16" s="7">
-        <v>20962</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,49 +5278,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="D17" s="7">
-        <v>23589</v>
+        <v>95885</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>121</v>
+      </c>
+      <c r="I17" s="7">
+        <v>85787</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27976</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>252</v>
+      </c>
+      <c r="N17" s="7">
+        <v>181672</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M17" s="7">
-        <v>77</v>
-      </c>
-      <c r="N17" s="7">
-        <v>51565</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,46 +5329,46 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>2621</v>
+        <v>37522</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>63</v>
+      </c>
+      <c r="I18" s="7">
+        <v>44568</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1774</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>116</v>
+      </c>
+      <c r="N18" s="7">
+        <v>82089</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4395</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>326</v>
@@ -5380,49 +5380,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>41452</v>
+        <v>671</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6530</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="7">
-        <v>64</v>
-      </c>
-      <c r="I19" s="7">
-        <v>43339</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7200</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M19" s="7">
-        <v>124</v>
-      </c>
-      <c r="N19" s="7">
-        <v>84791</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,43 +5434,43 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>644</v>
+        <v>891</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1181</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>564</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2072</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1208</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>340</v>
@@ -5482,49 +5482,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,10 +5535,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="D22" s="7">
-        <v>45081</v>
+        <v>179821</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>341</v>
@@ -5550,10 +5550,10 @@
         <v>343</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="I22" s="7">
-        <v>57970</v>
+        <v>163912</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>344</v>
@@ -5565,10 +5565,10 @@
         <v>346</v>
       </c>
       <c r="M22" s="7">
-        <v>147</v>
+        <v>475</v>
       </c>
       <c r="N22" s="7">
-        <v>103052</v>
+        <v>343733</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>347</v>
@@ -5637,49 +5637,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7">
-        <v>3292</v>
+        <v>45081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I24" s="7">
-        <v>8304</v>
+        <v>57970</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="N24" s="7">
-        <v>11596</v>
+        <v>103052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,49 +5688,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>179821</v>
+        <v>3292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>163912</v>
+        <v>8304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
-        <v>475</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>343733</v>
+        <v>11596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +5748,10 @@
         <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5760,7 +5760,7 @@
         <v>1745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>374</v>
@@ -5796,13 +5796,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5811,13 +5811,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5826,13 +5826,13 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AE3D4-4B27-41FC-8D24-A293886981EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221B321-6CC1-48CE-8CEB-C481093B8516}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6241,49 +6241,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>33526</v>
+        <v>23337</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="7">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
       <c r="I10" s="7">
-        <v>17448</v>
+        <v>14487</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>50974</v>
+        <v>37824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,49 +6292,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>66237</v>
+        <v>13009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>53911</v>
+        <v>13598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M11" s="7">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26607</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M11" s="7">
-        <v>152</v>
-      </c>
-      <c r="N11" s="7">
-        <v>120148</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,49 +6343,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4305</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <v>3909</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
       <c r="I12" s="7">
-        <v>1184</v>
+        <v>3239</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5093</v>
+        <v>7545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,49 +6394,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>119359</v>
+        <v>725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>94151</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>213509</v>
+        <v>725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,49 +6445,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2774</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2676</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1851</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>4625</v>
+        <v>2676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,78 +6496,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D16" s="7">
-        <v>4305</v>
+        <v>119359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>416</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>3239</v>
+        <v>94151</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>417</v>
@@ -6579,19 +6579,19 @@
         <v>419</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7">
-        <v>7545</v>
+        <v>213509</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,49 +6600,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>13009</v>
+        <v>66237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>13598</v>
+        <v>53911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M17" s="7">
+        <v>152</v>
+      </c>
+      <c r="N17" s="7">
+        <v>120148</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M17" s="7">
-        <v>31</v>
-      </c>
-      <c r="N17" s="7">
-        <v>26607</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,49 +6651,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>725</v>
+        <v>33526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>17448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>725</v>
+        <v>50974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,46 +6702,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>23337</v>
+        <v>3909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>14487</v>
+        <v>1184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5093</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="N19" s="7">
-        <v>37824</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>443</v>
@@ -6753,49 +6753,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>444</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>445</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2676</v>
+        <v>1851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>447</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>2676</v>
+        <v>4625</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,49 +6804,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,10 +6857,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D22" s="7">
-        <v>37831</v>
+        <v>142695</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>449</v>
@@ -6869,37 +6869,37 @@
         <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I22" s="7">
-        <v>20687</v>
+        <v>108638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="N22" s="7">
-        <v>58518</v>
+        <v>251333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6914,13 @@
         <v>79246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -6929,13 +6929,13 @@
         <v>67509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -6944,13 +6944,13 @@
         <v>146755</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,49 +6959,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>4634</v>
+        <v>37831</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>38</v>
+        <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>286</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>1184</v>
+        <v>20687</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>36</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>5818</v>
+        <v>58518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,40 +7010,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>142695</v>
+        <v>4634</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>108638</v>
+        <v>1184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>476</v>
       </c>
       <c r="M25" s="7">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>251333</v>
+        <v>5818</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>477</v>
@@ -7082,10 +7082,10 @@
         <v>4527</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>481</v>
@@ -7118,13 +7118,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -7133,13 +7133,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -7148,13 +7148,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C4EC19-BF45-4427-923F-DD7E1E1CD9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C644E7D-962B-4989-857A-727FBA25330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D091A7F0-892F-403D-BFC6-6D9D47989EBA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD3F119-260E-4BD9-9DE4-0409B9BEF132}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="483">
   <si>
     <t>Menores según frecuencia de sentirse  triste en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -68,1432 +68,1426 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
   </si>
   <si>
     <t>59,43%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
     <t>53,64%</t>
   </si>
   <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1498,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1600,39 +1594,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1684,7 +1678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1795,13 +1789,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1810,6 +1797,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1874,19 +1868,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E303107-4813-4CD3-B002-348B1BAD3461}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2385E5-E8D4-456B-91C8-D8E70EFAEA09}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2275,49 +2289,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7">
-        <v>40256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
-      </c>
-      <c r="N10" s="7">
-        <v>68862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,49 +2334,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <v>12471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,49 +2379,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
-      </c>
-      <c r="N12" s="7">
-        <v>11818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,49 +2424,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,47 +2471,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,102 +2514,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>160002</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>138878</v>
+        <v>999</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
-        <v>443</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>298880</v>
+        <v>999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,49 +2612,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>61322</v>
+        <v>487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>62962</v>
+        <v>1169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>124284</v>
+        <v>1656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,49 +2663,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14099</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7">
+        <v>14046</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="7">
+        <v>43</v>
+      </c>
+      <c r="N18" s="7">
+        <v>28145</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7">
-        <v>24841</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="7">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7">
-        <v>32689</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="7">
-        <v>86</v>
-      </c>
-      <c r="N18" s="7">
-        <v>57530</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,49 +2714,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>1257</v>
+        <v>33807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7">
+        <v>35566</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4162</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>5420</v>
+        <v>69374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,49 +2765,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>1885</v>
+        <v>75087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>2339</v>
+        <v>59212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="N20" s="7">
-        <v>4224</v>
+        <v>134299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,102 +2816,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>249307</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="I21" s="7">
-        <v>241030</v>
+        <v>110991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>353</v>
       </c>
       <c r="N21" s="7">
-        <v>490337</v>
+        <v>234472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>200257</v>
+        <v>1885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>167484</v>
+        <v>1340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>546</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>367741</v>
+        <v>3225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,49 +2920,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>73793</v>
+        <v>1257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H23" s="7">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>75387</v>
+        <v>4162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>149179</v>
+        <v>5420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2971,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>30696</v>
+        <v>16597</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7">
-        <v>38652</v>
+        <v>24606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="N24" s="7">
-        <v>69348</v>
+        <v>41203</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,49 +3022,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7">
-        <v>1745</v>
+        <v>39985</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>5331</v>
+        <v>39820</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="N25" s="7">
-        <v>7076</v>
+        <v>79806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,49 +3073,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D26" s="7">
-        <v>1885</v>
+        <v>125170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="I26" s="7">
-        <v>2339</v>
+        <v>108273</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="N26" s="7">
-        <v>4224</v>
+        <v>233442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,55 +3124,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>278</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184894</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>263</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178202</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>541</v>
+      </c>
+      <c r="N27" s="7">
+        <v>363096</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1885</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2339</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4224</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5331</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="7">
+        <v>11</v>
+      </c>
+      <c r="N29" s="7">
+        <v>7076</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30696</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="7">
+        <v>57</v>
+      </c>
+      <c r="I30" s="7">
+        <v>38652</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="7">
+        <v>104</v>
+      </c>
+      <c r="N30" s="7">
+        <v>69348</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>111</v>
+      </c>
+      <c r="D31" s="7">
+        <v>73793</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="7">
+        <v>115</v>
+      </c>
+      <c r="I31" s="7">
+        <v>75387</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="7">
+        <v>226</v>
+      </c>
+      <c r="N31" s="7">
+        <v>149179</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>300</v>
+      </c>
+      <c r="D32" s="7">
+        <v>200257</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>246</v>
+      </c>
+      <c r="I32" s="7">
+        <v>167484</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="7">
+        <v>546</v>
+      </c>
+      <c r="N32" s="7">
+        <v>367741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308376</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>430</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289193</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>894</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>597568</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3207,8 +3499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97282FA-23D8-40D1-B2B6-DD350A0ED171}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02876079-F91B-4285-B0F2-05685C838C40}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3224,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3597,49 +3889,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
-      </c>
-      <c r="N10" s="7">
-        <v>61972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,49 +3934,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7">
-        <v>23039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>58</v>
-      </c>
-      <c r="N11" s="7">
-        <v>41852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,49 +3979,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <v>14683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,49 +4024,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,47 +4071,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,102 +4114,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>125192</v>
+        <v>1430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3617</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="7">
-        <v>103217</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="M16" s="7">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>228410</v>
+        <v>5047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,49 +4212,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>78030</v>
+        <v>2045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>79078</v>
+        <v>5374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>157108</v>
+        <v>7419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,49 +4263,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>50264</v>
+        <v>34634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>51665</v>
+        <v>27437</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>101929</v>
+        <v>62071</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,49 +4314,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>3033</v>
+        <v>51514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>4566</v>
+        <v>42287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="N19" s="7">
-        <v>7599</v>
+        <v>93801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,49 +4365,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>3384</v>
+        <v>65804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7">
-        <v>4280</v>
+        <v>71250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="N20" s="7">
-        <v>7664</v>
+        <v>137054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,102 +4416,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>502710</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>152028</v>
+        <v>1954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>138354</v>
+        <v>3686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>290382</v>
+        <v>5640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,49 +4520,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>101070</v>
+        <v>2604</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>97891</v>
+        <v>1943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>198960</v>
+        <v>4548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,49 +4571,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30313</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="7">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>33872</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="7">
         <v>92</v>
       </c>
-      <c r="D24" s="7">
-        <v>64946</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>61309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M24" s="7">
-        <v>178</v>
-      </c>
       <c r="N24" s="7">
-        <v>126256</v>
+        <v>64185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +4622,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>4650</v>
+        <v>49555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="7">
+        <v>79</v>
+      </c>
+      <c r="I25" s="7">
+        <v>55603</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" s="7">
+        <v>153</v>
+      </c>
+      <c r="N25" s="7">
+        <v>105159</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7317</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M25" s="7">
-        <v>18</v>
-      </c>
-      <c r="N25" s="7">
-        <v>11967</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,49 +4673,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D26" s="7">
-        <v>3384</v>
+        <v>86224</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="I26" s="7">
-        <v>7303</v>
+        <v>67104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="N26" s="7">
-        <v>10687</v>
+        <v>153329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,55 +4724,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3384</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="7">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7303</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="7">
+        <v>15</v>
+      </c>
+      <c r="N28" s="7">
+        <v>10687</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4650</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="7">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7317</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="7">
+        <v>18</v>
+      </c>
+      <c r="N29" s="7">
+        <v>11967</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7">
+        <v>64946</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="7">
+        <v>86</v>
+      </c>
+      <c r="I30" s="7">
+        <v>61309</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="7">
+        <v>178</v>
+      </c>
+      <c r="N30" s="7">
+        <v>126256</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7">
+        <v>101070</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="7">
+        <v>139</v>
+      </c>
+      <c r="I31" s="7">
+        <v>97891</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="7">
+        <v>287</v>
+      </c>
+      <c r="N31" s="7">
+        <v>198960</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>222</v>
+      </c>
+      <c r="D32" s="7">
+        <v>152028</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="7">
+        <v>198</v>
+      </c>
+      <c r="I32" s="7">
+        <v>138354</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" s="7">
+        <v>420</v>
+      </c>
+      <c r="N32" s="7">
+        <v>290382</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>918</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>638252</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4529,8 +5099,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E32E7-4356-4E9F-BA02-EE0614D80A78}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFE68FB-F686-430E-AD34-78B23C9C3B39}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4546,7 +5116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4919,49 +5489,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7">
-        <v>41452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>124</v>
-      </c>
-      <c r="N10" s="7">
-        <v>84791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,49 +5534,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7">
-        <v>23589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
-      </c>
-      <c r="N11" s="7">
-        <v>51565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,49 +5579,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>31</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,49 +5624,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1774</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,49 +5669,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,102 +5714,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>138369</v>
+        <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>120574</v>
+        <v>1221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
-        <v>351</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>258942</v>
+        <v>1865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,49 +5812,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>95885</v>
+        <v>2621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>85787</v>
+        <v>3183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>181672</v>
+        <v>5804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,49 +5863,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>37522</v>
+        <v>23730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>44568</v>
+        <v>23216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="N18" s="7">
-        <v>82089</v>
+        <v>46947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,49 +5914,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>671</v>
+        <v>57731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
-        <v>6530</v>
+        <v>52796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="N19" s="7">
-        <v>7200</v>
+        <v>110527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,49 +5965,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>891</v>
+        <v>93885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="I20" s="7">
-        <v>1181</v>
+        <v>100470</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="N20" s="7">
-        <v>2072</v>
+        <v>194355</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,102 +6016,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>179821</v>
+        <v>891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>163912</v>
+        <v>524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>344</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
-        <v>475</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>343733</v>
+        <v>1415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,49 +6120,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>119474</v>
+        <v>671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>113763</v>
+        <v>5121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>233236</v>
+        <v>5791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,49 +6171,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>45081</v>
+        <v>21351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I24" s="7">
-        <v>57970</v>
+        <v>34754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="N24" s="7">
-        <v>103052</v>
+        <v>56105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,49 +6222,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7">
-        <v>3292</v>
+        <v>61743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I25" s="7">
-        <v>8304</v>
+        <v>60966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N25" s="7">
-        <v>11596</v>
+        <v>122709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +6273,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D26" s="7">
-        <v>1535</v>
+        <v>85936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="I26" s="7">
-        <v>1745</v>
+        <v>63442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="N26" s="7">
-        <v>3281</v>
+        <v>149378</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,55 +6324,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1535</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1745</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" s="7">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3281</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3292</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="7">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8304</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M29" s="7">
+        <v>17</v>
+      </c>
+      <c r="N29" s="7">
+        <v>11596</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45081</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="7">
+        <v>83</v>
+      </c>
+      <c r="I30" s="7">
+        <v>57970</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M30" s="7">
+        <v>147</v>
+      </c>
+      <c r="N30" s="7">
+        <v>103052</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>165</v>
+      </c>
+      <c r="D31" s="7">
+        <v>119474</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H31" s="7">
+        <v>164</v>
+      </c>
+      <c r="I31" s="7">
+        <v>113763</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M31" s="7">
+        <v>329</v>
+      </c>
+      <c r="N31" s="7">
+        <v>233236</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>244</v>
+      </c>
+      <c r="D32" s="7">
+        <v>179821</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="7">
+        <v>231</v>
+      </c>
+      <c r="I32" s="7">
+        <v>163912</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M32" s="7">
+        <v>475</v>
+      </c>
+      <c r="N32" s="7">
+        <v>343733</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>973</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5851,8 +6699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221B321-6CC1-48CE-8CEB-C481093B8516}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6087669D-0975-4654-B070-A4383DCDC314}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6241,49 +7089,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7">
-        <v>23337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
-      </c>
-      <c r="N10" s="7">
-        <v>37824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,49 +7134,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7">
-        <v>13009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7">
-        <v>26607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,49 +7179,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,49 +7224,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,47 +7271,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,102 +7314,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>119359</v>
+        <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>94151</v>
+        <v>2676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>213509</v>
+        <v>3641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,49 +7412,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>66237</v>
+        <v>3782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>53911</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>120148</v>
+        <v>3782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,49 +7463,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>33526</v>
+        <v>12094</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>210</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>17448</v>
+        <v>8848</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>50974</v>
+        <v>20943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,49 +7514,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>3909</v>
+        <v>26301</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>1184</v>
+        <v>25420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>5093</v>
+        <v>51721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,49 +7565,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>2774</v>
+        <v>56206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I20" s="7">
-        <v>1851</v>
+        <v>34721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="N20" s="7">
-        <v>4625</v>
+        <v>90927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,102 +7616,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>142695</v>
+        <v>1809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>108638</v>
+        <v>1851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>251333</v>
+        <v>3660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,49 +7720,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>79246</v>
+        <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>67509</v>
+        <v>1184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>146755</v>
+        <v>2036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,49 +7771,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>37831</v>
+        <v>25737</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>20687</v>
+        <v>11839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>58518</v>
+        <v>37576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,49 +7822,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
-        <v>4634</v>
+        <v>52945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I25" s="7">
-        <v>1184</v>
+        <v>42089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N25" s="7">
-        <v>5818</v>
+        <v>95034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,49 +7873,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7">
-        <v>2774</v>
+        <v>86489</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="I26" s="7">
-        <v>4527</v>
+        <v>73917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>7301</v>
+        <v>160406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,55 +7924,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2774</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4527</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="7">
+        <v>10</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7301</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4634</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1184</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M29" s="7">
+        <v>6</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5818</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>37831</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="7">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>20687</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M30" s="7">
+        <v>66</v>
+      </c>
+      <c r="N30" s="7">
+        <v>58518</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>93</v>
+      </c>
+      <c r="D31" s="7">
+        <v>79246</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="7">
+        <v>90</v>
+      </c>
+      <c r="I31" s="7">
+        <v>67509</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M31" s="7">
+        <v>183</v>
+      </c>
+      <c r="N31" s="7">
+        <v>146755</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>167</v>
+      </c>
+      <c r="D32" s="7">
+        <v>142695</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H32" s="7">
+        <v>145</v>
+      </c>
+      <c r="I32" s="7">
+        <v>108638</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M32" s="7">
+        <v>312</v>
+      </c>
+      <c r="N32" s="7">
+        <v>251333</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C644E7D-962B-4989-857A-727FBA25330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB5F921-39BF-4918-A0BB-084E94A721EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD3F119-260E-4BD9-9DE4-0409B9BEF132}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D738A1-369B-45DF-95FA-B2EB5F5138D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="494">
   <si>
     <t>Menores según frecuencia de sentirse  triste en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -107,1387 +107,1420 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,39%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>24,76%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>53,64%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2385E5-E8D4-456B-91C8-D8E70EFAEA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575AF62-53B2-4023-BDF4-FCDF40B4FC11}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2792,7 +2825,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -2801,13 +2834,13 @@
         <v>134299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2855,13 @@
         <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -2837,13 +2870,13 @@
         <v>110991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>353</v>
@@ -2852,18 +2885,18 @@
         <v>234472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2908,13 @@
         <v>1885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2890,13 +2923,13 @@
         <v>1340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2905,13 +2938,13 @@
         <v>3225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2959,13 @@
         <v>1257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2941,13 +2974,13 @@
         <v>4162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2956,13 +2989,13 @@
         <v>5420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +3010,13 @@
         <v>16597</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2992,13 +3025,13 @@
         <v>24606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -3007,13 +3040,13 @@
         <v>41203</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3061,13 @@
         <v>39985</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -3043,13 +3076,13 @@
         <v>39820</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -3058,13 +3091,13 @@
         <v>79806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3112,13 @@
         <v>125170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -3094,13 +3127,13 @@
         <v>108273</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -3109,13 +3142,13 @@
         <v>233442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3163,13 @@
         <v>184894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -3145,13 +3178,13 @@
         <v>178202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>541</v>
@@ -3160,13 +3193,13 @@
         <v>363096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3216,13 @@
         <v>1885</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3198,13 +3231,13 @@
         <v>2339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3216,10 +3249,10 @@
         <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3267,13 @@
         <v>1745</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3249,13 +3282,13 @@
         <v>5331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -3264,13 +3297,13 @@
         <v>7076</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3318,13 @@
         <v>30696</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>57</v>
@@ -3300,13 +3333,13 @@
         <v>38652</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -3315,13 +3348,13 @@
         <v>69348</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3369,13 @@
         <v>73793</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>115</v>
@@ -3351,13 +3384,13 @@
         <v>75387</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>226</v>
@@ -3366,13 +3399,13 @@
         <v>149179</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3420,13 @@
         <v>200257</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
@@ -3402,13 +3435,13 @@
         <v>167484</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>546</v>
@@ -3417,13 +3450,13 @@
         <v>367741</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3471,13 @@
         <v>308376</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>430</v>
@@ -3453,13 +3486,13 @@
         <v>289193</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>894</v>
@@ -3468,18 +3501,18 @@
         <v>597568</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02876079-F91B-4285-B0F2-05685C838C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D94BFCC-36E7-46D1-9B6C-1C2D8600A908}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4167,13 +4200,13 @@
         <v>1430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4182,13 +4215,13 @@
         <v>3617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4197,13 +4230,13 @@
         <v>5047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4251,13 @@
         <v>2045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4233,13 +4266,13 @@
         <v>5374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4248,13 +4281,13 @@
         <v>7419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4302,13 @@
         <v>34634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -4284,13 +4317,13 @@
         <v>27437</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -4299,13 +4332,13 @@
         <v>62071</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4353,13 @@
         <v>51514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4335,13 +4368,13 @@
         <v>42287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4350,13 +4383,13 @@
         <v>93801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4404,13 @@
         <v>65804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -4386,13 +4419,13 @@
         <v>71250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -4401,13 +4434,13 @@
         <v>137054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4455,13 @@
         <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>214</v>
@@ -4437,13 +4470,13 @@
         <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>437</v>
@@ -4452,18 +4485,18 @@
         <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4475,13 +4508,13 @@
         <v>1954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4490,13 +4523,13 @@
         <v>3686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4505,13 +4538,13 @@
         <v>5640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4559,13 @@
         <v>2604</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4541,13 +4574,13 @@
         <v>1943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -4556,7 +4589,7 @@
         <v>4548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>202</v>
@@ -4643,13 +4676,13 @@
         <v>55603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -4658,13 +4691,13 @@
         <v>105159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4712,13 @@
         <v>86224</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -4694,13 +4727,13 @@
         <v>67104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>221</v>
@@ -4709,13 +4742,13 @@
         <v>153329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4763,13 @@
         <v>170651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>230</v>
@@ -4745,13 +4778,13 @@
         <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -4760,13 +4793,13 @@
         <v>332861</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4816,13 @@
         <v>3384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -4798,13 +4831,13 @@
         <v>7303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -4813,13 +4846,13 @@
         <v>10687</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4867,13 @@
         <v>4650</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4849,13 +4882,13 @@
         <v>7317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4864,13 +4897,13 @@
         <v>11967</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4918,13 @@
         <v>64946</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H30" s="7">
         <v>86</v>
@@ -4900,13 +4933,13 @@
         <v>61309</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -4915,13 +4948,13 @@
         <v>126256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4969,13 @@
         <v>101070</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H31" s="7">
         <v>139</v>
@@ -4951,13 +4984,13 @@
         <v>97891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M31" s="7">
         <v>287</v>
@@ -4966,13 +4999,13 @@
         <v>198960</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5020,13 @@
         <v>152028</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
@@ -5002,13 +5035,13 @@
         <v>138354</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M32" s="7">
         <v>420</v>
@@ -5017,13 +5050,13 @@
         <v>290382</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5071,13 @@
         <v>326078</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>444</v>
@@ -5053,13 +5086,13 @@
         <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>918</v>
@@ -5068,18 +5101,18 @@
         <v>638252</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFE68FB-F686-430E-AD34-78B23C9C3B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06718-1DA2-4613-B6DC-40EEB63F25D6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5116,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,13 +5800,13 @@
         <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5782,13 +5815,13 @@
         <v>1221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5797,13 +5830,13 @@
         <v>1865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5851,13 @@
         <v>2621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5833,13 +5866,13 @@
         <v>3183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5848,13 +5881,13 @@
         <v>5804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5902,13 @@
         <v>23730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -5884,13 +5917,13 @@
         <v>23216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -5899,13 +5932,13 @@
         <v>46947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5953,13 @@
         <v>57731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -5935,13 +5968,13 @@
         <v>52796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5950,13 +5983,13 @@
         <v>110527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +6004,13 @@
         <v>93885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -5986,13 +6019,13 @@
         <v>100470</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
@@ -6001,13 +6034,13 @@
         <v>194355</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6055,13 @@
         <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -6037,13 +6070,13 @@
         <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>509</v>
@@ -6052,18 +6085,18 @@
         <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6075,13 +6108,13 @@
         <v>891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6090,13 +6123,13 @@
         <v>524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6105,13 +6138,13 @@
         <v>1415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6165,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6141,13 +6174,13 @@
         <v>5121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6156,13 +6189,13 @@
         <v>5791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6210,13 @@
         <v>21351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -6192,13 +6225,13 @@
         <v>34754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -6207,13 +6240,13 @@
         <v>56105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6261,13 @@
         <v>61743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6243,13 +6276,13 @@
         <v>60966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -6258,13 +6291,13 @@
         <v>122709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6312,13 @@
         <v>85936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
         <v>90</v>
@@ -6294,13 +6327,13 @@
         <v>63442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>204</v>
@@ -6309,13 +6342,13 @@
         <v>149378</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6363,13 @@
         <v>170592</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -6345,13 +6378,13 @@
         <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6360,13 +6393,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6416,13 @@
         <v>1535</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6398,13 +6431,13 @@
         <v>1745</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -6413,13 +6446,13 @@
         <v>3281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6467,13 @@
         <v>3292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -6449,13 +6482,13 @@
         <v>8304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6464,13 +6497,13 @@
         <v>11596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6518,13 @@
         <v>45081</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>353</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -6500,13 +6533,13 @@
         <v>57970</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M30" s="7">
         <v>147</v>
@@ -6515,13 +6548,13 @@
         <v>103052</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6569,13 @@
         <v>119474</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H31" s="7">
         <v>164</v>
@@ -6551,13 +6584,13 @@
         <v>113763</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M31" s="7">
         <v>329</v>
@@ -6566,13 +6599,13 @@
         <v>233236</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6620,13 @@
         <v>179821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H32" s="7">
         <v>231</v>
@@ -6602,13 +6635,13 @@
         <v>163912</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -6617,13 +6650,13 @@
         <v>343733</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6671,13 @@
         <v>349203</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>493</v>
@@ -6653,13 +6686,13 @@
         <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>973</v>
@@ -6668,18 +6701,18 @@
         <v>694897</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6699,7 +6732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6087669D-0975-4654-B070-A4383DCDC314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB2A04-9FFE-4001-958E-F9917A1DEDAE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6716,7 +6749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7367,13 +7400,13 @@
         <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7382,13 +7415,13 @@
         <v>2676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7397,13 +7430,13 @@
         <v>3641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7451,13 @@
         <v>3782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7439,7 +7472,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7448,13 +7481,13 @@
         <v>3782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7502,13 @@
         <v>12094</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7484,13 +7517,13 @@
         <v>8848</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7499,13 +7532,13 @@
         <v>20943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7553,13 @@
         <v>26301</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -7535,13 +7568,13 @@
         <v>25420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -7550,13 +7583,13 @@
         <v>51721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7604,13 @@
         <v>56206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -7586,13 +7619,13 @@
         <v>34721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -7601,13 +7634,13 @@
         <v>90927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7655,13 @@
         <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -7637,13 +7670,13 @@
         <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
@@ -7652,18 +7685,18 @@
         <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7675,13 +7708,13 @@
         <v>1809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7690,13 +7723,13 @@
         <v>1851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7705,13 +7738,13 @@
         <v>3660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7759,13 @@
         <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7747,7 +7780,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7756,13 +7789,13 @@
         <v>2036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7810,13 @@
         <v>25737</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>281</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -7792,13 +7825,13 @@
         <v>11839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -7807,13 +7840,13 @@
         <v>37576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7861,13 @@
         <v>52945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -7843,13 +7876,13 @@
         <v>42089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -7858,13 +7891,13 @@
         <v>95034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7912,13 @@
         <v>86489</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -7894,13 +7927,13 @@
         <v>73917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -7909,13 +7942,13 @@
         <v>160406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7963,13 @@
         <v>167832</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>175</v>
@@ -7945,13 +7978,13 @@
         <v>130880</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>363</v>
@@ -7960,13 +7993,13 @@
         <v>298712</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +8016,13 @@
         <v>2774</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -7998,13 +8031,13 @@
         <v>4527</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -8013,13 +8046,13 @@
         <v>7301</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8067,13 @@
         <v>4634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -8049,13 +8082,13 @@
         <v>1184</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -8064,13 +8097,13 @@
         <v>5818</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>344</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8118,13 @@
         <v>37831</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -8100,13 +8133,13 @@
         <v>20687</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -8115,13 +8148,13 @@
         <v>58518</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8169,13 @@
         <v>79246</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>478</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -8151,13 +8184,13 @@
         <v>67509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>183</v>
@@ -8166,13 +8199,13 @@
         <v>146755</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8220,13 @@
         <v>142695</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
@@ -8202,13 +8235,13 @@
         <v>108638</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M32" s="7">
         <v>312</v>
@@ -8217,13 +8250,13 @@
         <v>251333</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8271,13 @@
         <v>267180</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>270</v>
@@ -8253,13 +8286,13 @@
         <v>202546</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>577</v>
@@ -8268,18 +8301,18 @@
         <v>469726</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB5F921-39BF-4918-A0BB-084E94A721EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAACAFA-764A-4B47-ADDD-77CDA6DE8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93D738A1-369B-45DF-95FA-B2EB5F5138D9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5E4D3725-75C7-4D73-B0E1-7A7842E6124E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="496">
   <si>
     <t>Menores según frecuencia de sentirse  triste en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1432 +95,1438 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575AF62-53B2-4023-BDF4-FCDF40B4FC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C005B614-5B7C-4E7E-B031-314E7938EF1F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2594,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2609,16 +2615,16 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -2633,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -2645,31 +2651,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>487</v>
+        <v>1169</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1169</v>
+        <v>487</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>28</v>
@@ -2696,10 +2702,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>14099</v>
+        <v>14046</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -2711,10 +2717,10 @@
         <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>14046</v>
+        <v>14099</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>35</v>
@@ -2747,10 +2753,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>33807</v>
+        <v>35566</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>41</v>
@@ -2762,10 +2768,10 @@
         <v>43</v>
       </c>
       <c r="H19" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>35566</v>
+        <v>33807</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>44</v>
@@ -2798,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>75087</v>
+        <v>59212</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>50</v>
@@ -2813,10 +2819,10 @@
         <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>59212</v>
+        <v>75087</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>53</v>
@@ -2849,25 +2855,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>110991</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>167</v>
-      </c>
-      <c r="I21" s="7">
-        <v>110991</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2902,31 +2908,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1885</v>
+        <v>1340</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1885</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1340</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>65</v>
@@ -2953,31 +2959,31 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>1257</v>
+        <v>4162</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>4162</v>
+        <v>1257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>73</v>
@@ -2992,10 +2998,10 @@
         <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,34 +3010,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24606</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16597</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="7">
-        <v>36</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24606</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -3040,13 +3046,13 @@
         <v>41203</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,34 +3061,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39820</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="7">
         <v>60</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>39985</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="7">
-        <v>61</v>
-      </c>
-      <c r="I25" s="7">
-        <v>39820</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -3091,13 +3097,13 @@
         <v>79806</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,34 +3112,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>158</v>
+      </c>
+      <c r="D26" s="7">
+        <v>108273</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="7">
         <v>188</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>125170</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="7">
-        <v>158</v>
-      </c>
-      <c r="I26" s="7">
-        <v>108273</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -3142,13 +3148,13 @@
         <v>233442</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,25 +3163,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>263</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178202</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>278</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184894</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>263</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178202</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3210,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2339</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>1885</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2339</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>107</v>
@@ -3261,10 +3267,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>1745</v>
+        <v>5331</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>111</v>
@@ -3276,19 +3282,19 @@
         <v>113</v>
       </c>
       <c r="H29" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>5331</v>
+        <v>1745</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -3297,13 +3303,13 @@
         <v>7076</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,34 +3318,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>57</v>
+      </c>
+      <c r="D30" s="7">
+        <v>38652</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
         <v>47</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>30696</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="7">
-        <v>57</v>
-      </c>
-      <c r="I30" s="7">
-        <v>38652</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -3348,13 +3354,13 @@
         <v>69348</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,34 +3369,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>115</v>
+      </c>
+      <c r="D31" s="7">
+        <v>75387</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
         <v>111</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>73793</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="7">
-        <v>115</v>
-      </c>
-      <c r="I31" s="7">
-        <v>75387</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>226</v>
@@ -3399,13 +3405,13 @@
         <v>149179</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,34 +3420,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>246</v>
+      </c>
+      <c r="D32" s="7">
+        <v>167484</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
         <v>300</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>200257</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="7">
-        <v>246</v>
-      </c>
-      <c r="I32" s="7">
-        <v>167484</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>546</v>
@@ -3450,13 +3456,13 @@
         <v>367741</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,25 +3471,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>430</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289193</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>464</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308376</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>430</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289193</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -3512,7 +3518,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3532,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D94BFCC-36E7-46D1-9B6C-1C2D8600A908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D31CBA3-4D96-4BE6-A082-90DD6E7C82F8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3549,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4194,34 +4200,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3617</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1430</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3617</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4230,13 +4236,13 @@
         <v>5047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,34 +4251,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5374</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2045</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5374</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4281,13 +4287,13 @@
         <v>7419</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,34 +4302,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <v>27437</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="7">
         <v>47</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>34634</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="7">
-        <v>39</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27437</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -4332,13 +4338,13 @@
         <v>62071</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,34 +4353,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7">
+        <v>42287</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="7">
         <v>74</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>51514</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42287</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4383,13 +4389,13 @@
         <v>93801</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,34 +4404,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>71250</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="7">
         <v>97</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>65804</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="7">
-        <v>102</v>
-      </c>
-      <c r="I20" s="7">
-        <v>71250</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -4434,13 +4440,13 @@
         <v>137054</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,25 +4455,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4502,34 +4508,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3686</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1954</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3686</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4553,31 +4559,31 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>2604</v>
+        <v>1943</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2604</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1943</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>201</v>
@@ -4589,13 +4595,13 @@
         <v>4548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,34 +4610,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>47</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33872</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30313</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H24" s="7">
-        <v>47</v>
-      </c>
-      <c r="I24" s="7">
-        <v>33872</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -4640,13 +4646,13 @@
         <v>64185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,34 +4661,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7">
+        <v>55603</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="7">
         <v>74</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>49555</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="7">
-        <v>79</v>
-      </c>
-      <c r="I25" s="7">
-        <v>55603</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -4706,10 +4712,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>86224</v>
+        <v>67104</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>222</v>
@@ -4721,10 +4727,10 @@
         <v>224</v>
       </c>
       <c r="H26" s="7">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="I26" s="7">
-        <v>67104</v>
+        <v>86224</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>225</v>
@@ -4757,25 +4763,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4810,28 +4816,28 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7303</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3384</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="H28" s="7">
-        <v>10</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7303</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>234</v>
@@ -4846,13 +4852,13 @@
         <v>10687</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,34 +4867,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7317</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="7">
         <v>7</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>4650</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="7">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7317</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4897,13 +4903,13 @@
         <v>11967</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,34 +4918,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>86</v>
+      </c>
+      <c r="D30" s="7">
+        <v>61309</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="7">
         <v>92</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>64946</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H30" s="7">
-        <v>86</v>
-      </c>
-      <c r="I30" s="7">
-        <v>61309</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -4948,13 +4954,13 @@
         <v>126256</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,34 +4969,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D31" s="7">
-        <v>101070</v>
+        <v>97891</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>255</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H31" s="7">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I31" s="7">
-        <v>97891</v>
+        <v>101070</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M31" s="7">
         <v>287</v>
@@ -4999,13 +5005,13 @@
         <v>198960</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,34 +5020,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>198</v>
+      </c>
+      <c r="D32" s="7">
+        <v>138354</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="7">
         <v>222</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>152028</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H32" s="7">
-        <v>198</v>
-      </c>
-      <c r="I32" s="7">
-        <v>138354</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" s="7">
         <v>420</v>
@@ -5050,13 +5056,13 @@
         <v>290382</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,25 +5071,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326078</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -5112,7 +5118,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06718-1DA2-4613-B6DC-40EEB63F25D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AFCF5F-1E10-4748-8E01-6AB043117C5B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5149,7 +5155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5794,34 +5800,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>644</v>
+        <v>1221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1221</v>
+        <v>644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5830,13 +5836,13 @@
         <v>1865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,34 +5851,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3183</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2621</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3183</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5881,10 +5887,10 @@
         <v>5804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>285</v>
@@ -5896,34 +5902,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23216</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="7">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>23730</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23216</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -5932,13 +5938,13 @@
         <v>46947</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,34 +5953,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>78</v>
+      </c>
+      <c r="D19" s="7">
+        <v>52796</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="7">
         <v>81</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>57731</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H19" s="7">
-        <v>78</v>
-      </c>
-      <c r="I19" s="7">
-        <v>52796</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5983,13 +5989,13 @@
         <v>110527</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,34 +6004,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>141</v>
+      </c>
+      <c r="D20" s="7">
+        <v>100470</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="7">
         <v>130</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>93885</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="7">
-        <v>141</v>
-      </c>
-      <c r="I20" s="7">
-        <v>100470</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
@@ -6034,13 +6040,13 @@
         <v>194355</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,25 +6055,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -6105,31 +6111,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>891</v>
+        <v>524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>524</v>
+        <v>891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6138,13 +6144,13 @@
         <v>1415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,34 +6159,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5121</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>671</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5121</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6189,13 +6195,13 @@
         <v>5791</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,34 +6210,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34754</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="7">
         <v>30</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>21351</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H24" s="7">
-        <v>50</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34754</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -6240,13 +6246,13 @@
         <v>56105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,34 +6261,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60966</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="7">
         <v>84</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>61743</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="H25" s="7">
-        <v>86</v>
-      </c>
-      <c r="I25" s="7">
-        <v>60966</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -6291,13 +6297,13 @@
         <v>122709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,34 +6312,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7">
+        <v>63442</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="7">
         <v>114</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>85936</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="H26" s="7">
-        <v>90</v>
-      </c>
-      <c r="I26" s="7">
-        <v>63442</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>204</v>
@@ -6342,13 +6348,13 @@
         <v>149378</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,25 +6363,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6410,34 +6416,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>1535</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1745</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -6446,13 +6452,13 @@
         <v>3281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,34 +6467,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8304</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>3292</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="7">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7">
-        <v>8304</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6497,13 +6503,13 @@
         <v>11596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,31 +6518,31 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7">
+        <v>57970</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H30" s="7">
         <v>64</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>45081</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H30" s="7">
-        <v>83</v>
-      </c>
-      <c r="I30" s="7">
-        <v>57970</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>363</v>
@@ -6563,10 +6569,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="7">
-        <v>119474</v>
+        <v>113763</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>367</v>
@@ -6578,10 +6584,10 @@
         <v>369</v>
       </c>
       <c r="H31" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I31" s="7">
-        <v>113763</v>
+        <v>119474</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>370</v>
@@ -6614,10 +6620,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D32" s="7">
-        <v>179821</v>
+        <v>163912</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>376</v>
@@ -6629,10 +6635,10 @@
         <v>378</v>
       </c>
       <c r="H32" s="7">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="I32" s="7">
-        <v>163912</v>
+        <v>179821</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>379</v>
@@ -6653,10 +6659,10 @@
         <v>382</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,25 +6671,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6712,7 +6718,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB2A04-9FFE-4001-958E-F9917A1DEDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76F25E6-8AF1-45C4-9175-4F6B4C503A0B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6749,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7394,49 +7400,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2393</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>965</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>908</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2676</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3641</v>
+        <v>3301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,49 +7451,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>3782</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>3828</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>3782</v>
+        <v>3828</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,49 +7502,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8599</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
-        <v>12094</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>12441</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8848</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>20943</v>
+        <v>21040</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,49 +7553,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23776</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
-        <v>26301</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>25417</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25420</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>51721</v>
+        <v>49193</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,49 +7604,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7">
+        <v>33157</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="7">
         <v>69</v>
       </c>
-      <c r="D20" s="7">
-        <v>56206</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>56771</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H20" s="7">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7">
-        <v>34721</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
       </c>
       <c r="N20" s="7">
-        <v>90927</v>
+        <v>89928</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,25 +7655,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7682,7 +7688,7 @@
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7702,49 +7708,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1564</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
-        <v>1809</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>1789</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1851</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>3660</v>
+        <v>3352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,46 +7762,46 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>852</v>
+        <v>1013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1184</v>
+        <v>808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>2036</v>
+        <v>1820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,10 +7810,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>25737</v>
+        <v>11435</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>432</v>
@@ -7819,10 +7825,10 @@
         <v>434</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>11839</v>
+        <v>26736</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>435</v>
@@ -7837,7 +7843,7 @@
         <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>37576</v>
+        <v>38171</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>438</v>
@@ -7846,7 +7852,7 @@
         <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,25 +7861,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" s="7">
         <v>63</v>
       </c>
-      <c r="D25" s="7">
-        <v>52945</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H25" s="7">
-        <v>58</v>
-      </c>
       <c r="I25" s="7">
-        <v>42089</v>
+        <v>50678</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>443</v>
@@ -7888,7 +7894,7 @@
         <v>121</v>
       </c>
       <c r="N25" s="7">
-        <v>95034</v>
+        <v>89840</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>446</v>
@@ -7906,10 +7912,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7">
-        <v>86489</v>
+        <v>89373</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>449</v>
@@ -7921,34 +7927,34 @@
         <v>451</v>
       </c>
       <c r="H26" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I26" s="7">
-        <v>73917</v>
+        <v>92773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>160406</v>
+        <v>182146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,25 +7963,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7990,7 +7996,7 @@
         <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -8013,46 +8019,46 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>2774</v>
+        <v>3957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>231</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>4527</v>
+        <v>2697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>7301</v>
+        <v>6653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,49 +8067,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
-        <v>4634</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
       <c r="I29" s="7">
-        <v>1184</v>
+        <v>4636</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>275</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>5818</v>
+        <v>5648</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>350</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,49 +8118,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20034</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H30" s="7">
         <v>37</v>
       </c>
-      <c r="D30" s="7">
-        <v>37831</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
       <c r="I30" s="7">
-        <v>20687</v>
+        <v>39177</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
       </c>
       <c r="N30" s="7">
-        <v>58518</v>
+        <v>59211</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,49 +8169,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>90</v>
+      </c>
+      <c r="D31" s="7">
+        <v>62938</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" s="7">
         <v>93</v>
       </c>
-      <c r="D31" s="7">
-        <v>79246</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H31" s="7">
-        <v>90</v>
-      </c>
       <c r="I31" s="7">
-        <v>67509</v>
+        <v>76095</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>183</v>
       </c>
       <c r="N31" s="7">
-        <v>146755</v>
+        <v>139033</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>411</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,49 +8220,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>145</v>
+      </c>
+      <c r="D32" s="7">
+        <v>122530</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H32" s="7">
         <v>167</v>
       </c>
-      <c r="D32" s="7">
-        <v>142695</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H32" s="7">
-        <v>145</v>
-      </c>
       <c r="I32" s="7">
-        <v>108638</v>
+        <v>149543</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>488</v>
+        <v>95</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>490</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>312</v>
       </c>
       <c r="N32" s="7">
-        <v>251333</v>
+        <v>272074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,25 +8271,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>307</v>
       </c>
-      <c r="D33" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -8298,7 +8304,7 @@
         <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -8312,7 +8318,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
